--- a/DATA_rest_dummy.xlsx
+++ b/DATA_rest_dummy.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\docMgrJozefKiseľákPh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC83E88B-31E6-48B1-8B26-87932E3D7F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,7 +138,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,6 +151,8 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,11 +190,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
@@ -495,16 +500,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +522,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -563,7 +571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -573,7 +581,7 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
@@ -622,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -632,7 +640,7 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
@@ -681,7 +689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -691,7 +699,7 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
@@ -740,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -750,7 +758,7 @@
       <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E5" t="s">
@@ -799,7 +807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -809,7 +817,7 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
@@ -858,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -868,7 +876,7 @@
       <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
@@ -917,7 +925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -927,7 +935,7 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
@@ -976,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -986,7 +994,7 @@
       <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
@@ -1035,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1045,7 +1053,7 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E10" t="s">
@@ -1094,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1104,7 +1112,7 @@
       <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="s">
@@ -1153,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1163,7 +1171,7 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="s">
@@ -1212,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1222,7 +1230,7 @@
       <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
@@ -1271,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1281,7 +1289,7 @@
       <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E14" t="s">
@@ -1330,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1340,7 +1348,7 @@
       <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E15" t="s">
@@ -1389,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -1399,7 +1407,7 @@
       <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
@@ -1448,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1458,7 +1466,7 @@
       <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
@@ -1507,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1517,7 +1525,7 @@
       <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E18" t="s">
@@ -1566,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1576,7 +1584,7 @@
       <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
@@ -1625,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1635,7 +1643,7 @@
       <c r="C20" t="s">
         <v>21</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E20" t="s">
@@ -1684,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1694,7 +1702,7 @@
       <c r="C21" t="s">
         <v>21</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E21" t="s">
@@ -1743,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1753,7 +1761,7 @@
       <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E22" t="s">
@@ -1802,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1812,7 +1820,7 @@
       <c r="C23" t="s">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E23" t="s">
@@ -1861,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -1871,7 +1879,7 @@
       <c r="C24" t="s">
         <v>21</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E24" t="s">
@@ -1920,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1930,7 +1938,7 @@
       <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E25" t="s">
@@ -1979,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1989,7 +1997,7 @@
       <c r="C26" t="s">
         <v>21</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E26" t="s">
@@ -2038,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -2048,7 +2056,7 @@
       <c r="C27" t="s">
         <v>21</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E27" t="s">
@@ -2097,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2107,7 +2115,7 @@
       <c r="C28" t="s">
         <v>21</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E28" t="s">
@@ -2156,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -2166,7 +2174,7 @@
       <c r="C29" t="s">
         <v>21</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E29" t="s">
@@ -2215,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2225,7 +2233,7 @@
       <c r="C30" t="s">
         <v>21</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E30" t="s">
@@ -2274,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -2284,7 +2292,7 @@
       <c r="C31" t="s">
         <v>21</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E31" t="s">
@@ -2333,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -2343,7 +2351,7 @@
       <c r="C32" t="s">
         <v>21</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E32" t="s">
@@ -2392,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2402,7 +2410,7 @@
       <c r="C33" t="s">
         <v>21</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E33" t="s">
@@ -2451,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -2461,7 +2469,7 @@
       <c r="C34" t="s">
         <v>21</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E34" t="s">
@@ -2510,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -2520,7 +2528,7 @@
       <c r="C35" t="s">
         <v>21</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E35" t="s">
@@ -2569,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2579,7 +2587,7 @@
       <c r="C36" t="s">
         <v>21</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E36" t="s">
@@ -2628,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -2638,7 +2646,7 @@
       <c r="C37" t="s">
         <v>33</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E37" t="s">
@@ -2687,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -2697,7 +2705,7 @@
       <c r="C38" t="s">
         <v>21</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E38" t="s">
@@ -2746,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -2756,7 +2764,7 @@
       <c r="C39" t="s">
         <v>21</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E39" t="s">
@@ -2805,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -2815,7 +2823,7 @@
       <c r="C40" t="s">
         <v>21</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E40" t="s">
@@ -2864,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -2874,7 +2882,7 @@
       <c r="C41" t="s">
         <v>21</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E41" t="s">
@@ -2923,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -2933,7 +2941,7 @@
       <c r="C42" t="s">
         <v>21</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E42" t="s">
@@ -2982,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2992,7 +3000,7 @@
       <c r="C43" t="s">
         <v>27</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E43" t="s">
@@ -3041,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -3051,7 +3059,7 @@
       <c r="C44" t="s">
         <v>21</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E44" t="s">
@@ -3100,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -3110,7 +3118,7 @@
       <c r="C45" t="s">
         <v>27</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E45" t="s">
@@ -3159,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -3169,7 +3177,7 @@
       <c r="C46" t="s">
         <v>21</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E46" t="s">
@@ -3218,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -3228,7 +3236,7 @@
       <c r="C47" t="s">
         <v>21</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E47" t="s">
@@ -3277,7 +3285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -3287,7 +3295,7 @@
       <c r="C48" t="s">
         <v>21</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E48" t="s">
@@ -3336,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -3346,7 +3354,7 @@
       <c r="C49" t="s">
         <v>21</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E49" t="s">
@@ -3395,7 +3403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -3405,7 +3413,7 @@
       <c r="C50" t="s">
         <v>21</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E50" t="s">
@@ -3454,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -3464,7 +3472,7 @@
       <c r="C51" t="s">
         <v>21</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E51" t="s">
@@ -3513,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -3523,7 +3531,7 @@
       <c r="C52" t="s">
         <v>21</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E52" t="s">
@@ -3572,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -3582,7 +3590,7 @@
       <c r="C53" t="s">
         <v>29</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E53" t="s">
@@ -3631,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -3641,7 +3649,7 @@
       <c r="C54" t="s">
         <v>33</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E54" t="s">
@@ -3690,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -3700,7 +3708,7 @@
       <c r="C55" t="s">
         <v>21</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E55" t="s">
@@ -3749,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -3759,7 +3767,7 @@
       <c r="C56" t="s">
         <v>21</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E56" t="s">
@@ -3808,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -3818,7 +3826,7 @@
       <c r="C57" t="s">
         <v>21</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E57" t="s">
@@ -3867,7 +3875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -3877,7 +3885,7 @@
       <c r="C58" t="s">
         <v>21</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E58" t="s">
@@ -3926,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -3936,7 +3944,7 @@
       <c r="C59" t="s">
         <v>21</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E59" t="s">
@@ -3985,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -3995,7 +4003,7 @@
       <c r="C60" t="s">
         <v>27</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E60" t="s">
@@ -4044,7 +4052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -4054,7 +4062,7 @@
       <c r="C61" t="s">
         <v>21</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E61" t="s">
@@ -4103,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -4113,7 +4121,7 @@
       <c r="C62" t="s">
         <v>21</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E62" t="s">
@@ -4162,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -4172,7 +4180,7 @@
       <c r="C63" t="s">
         <v>27</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E63" t="s">
@@ -4221,7 +4229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -4231,7 +4239,7 @@
       <c r="C64" t="s">
         <v>21</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E64" t="s">
@@ -4280,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -4290,7 +4298,7 @@
       <c r="C65" t="s">
         <v>27</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E65" t="s">
@@ -4339,7 +4347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -4349,7 +4357,7 @@
       <c r="C66" t="s">
         <v>29</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E66" t="s">
@@ -4398,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -4408,7 +4416,7 @@
       <c r="C67" t="s">
         <v>29</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E67" t="s">
@@ -4457,7 +4465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -4467,7 +4475,7 @@
       <c r="C68" t="s">
         <v>21</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E68" t="s">
@@ -4516,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -4526,7 +4534,7 @@
       <c r="C69" t="s">
         <v>21</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E69" t="s">
@@ -4575,7 +4583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -4585,7 +4593,7 @@
       <c r="C70" t="s">
         <v>21</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E70" t="s">
@@ -4634,7 +4642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -4644,7 +4652,7 @@
       <c r="C71" t="s">
         <v>21</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E71" t="s">
@@ -4693,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -4703,7 +4711,7 @@
       <c r="C72" t="s">
         <v>21</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E72" t="s">
@@ -4752,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -4762,7 +4770,7 @@
       <c r="C73" t="s">
         <v>21</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E73" t="s">
@@ -4811,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -4821,7 +4829,7 @@
       <c r="C74" t="s">
         <v>21</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E74" t="s">
@@ -4870,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -4880,7 +4888,7 @@
       <c r="C75" t="s">
         <v>29</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E75" t="s">
@@ -4929,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -4939,7 +4947,7 @@
       <c r="C76" t="s">
         <v>27</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E76" t="s">
@@ -4988,7 +4996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -4998,7 +5006,7 @@
       <c r="C77" t="s">
         <v>29</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E77" t="s">
@@ -5047,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -5057,7 +5065,7 @@
       <c r="C78" t="s">
         <v>27</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E78" t="s">
@@ -5106,7 +5114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -5116,7 +5124,7 @@
       <c r="C79" t="s">
         <v>21</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E79" t="s">
@@ -5165,7 +5173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -5175,7 +5183,7 @@
       <c r="C80" t="s">
         <v>29</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E80" t="s">
@@ -5224,7 +5232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -5234,7 +5242,7 @@
       <c r="C81" t="s">
         <v>21</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E81" t="s">
@@ -5283,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -5293,7 +5301,7 @@
       <c r="C82" t="s">
         <v>29</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E82" t="s">
@@ -5342,7 +5350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -5352,7 +5360,7 @@
       <c r="C83" t="s">
         <v>27</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E83" t="s">
@@ -5401,7 +5409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -5411,7 +5419,7 @@
       <c r="C84" t="s">
         <v>21</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E84" t="s">
@@ -5460,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -5470,7 +5478,7 @@
       <c r="C85" t="s">
         <v>33</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E85" t="s">
@@ -5519,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -5529,7 +5537,7 @@
       <c r="C86" t="s">
         <v>21</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E86" t="s">
@@ -5578,7 +5586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -5588,7 +5596,7 @@
       <c r="C87" t="s">
         <v>27</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E87" t="s">
@@ -5637,7 +5645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -5647,7 +5655,7 @@
       <c r="C88" t="s">
         <v>21</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E88" t="s">
@@ -5696,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -5706,7 +5714,7 @@
       <c r="C89" t="s">
         <v>21</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E89" t="s">
@@ -5755,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>35</v>
       </c>
@@ -5765,7 +5773,7 @@
       <c r="C90" t="s">
         <v>21</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E90" t="s">
@@ -5814,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -5824,7 +5832,7 @@
       <c r="C91" t="s">
         <v>21</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E91" t="s">
@@ -5873,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -5883,7 +5891,7 @@
       <c r="C92" t="s">
         <v>21</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E92" t="s">
@@ -5932,7 +5940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -5942,7 +5950,7 @@
       <c r="C93" t="s">
         <v>29</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E93" t="s">
@@ -5991,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -6001,7 +6009,7 @@
       <c r="C94" t="s">
         <v>21</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E94" t="s">
@@ -6050,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -6060,7 +6068,7 @@
       <c r="C95" t="s">
         <v>27</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E95" t="s">
@@ -6109,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -6119,7 +6127,7 @@
       <c r="C96" t="s">
         <v>27</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E96" t="s">
@@ -6168,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -6178,7 +6186,7 @@
       <c r="C97" t="s">
         <v>29</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E97" t="s">
@@ -6227,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -6237,7 +6245,7 @@
       <c r="C98" t="s">
         <v>21</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E98" t="s">
@@ -6286,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -6296,7 +6304,7 @@
       <c r="C99" t="s">
         <v>21</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E99" t="s">
@@ -6345,7 +6353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -6355,7 +6363,7 @@
       <c r="C100" t="s">
         <v>21</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E100" t="s">
@@ -6404,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -6414,7 +6422,7 @@
       <c r="C101" t="s">
         <v>21</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E101" t="s">
@@ -6463,7 +6471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -6473,7 +6481,7 @@
       <c r="C102" t="s">
         <v>29</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E102" t="s">
@@ -6522,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -6532,7 +6540,7 @@
       <c r="C103" t="s">
         <v>21</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E103" t="s">
@@ -6581,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -6591,7 +6599,7 @@
       <c r="C104" t="s">
         <v>21</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E104" t="s">
@@ -6640,7 +6648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -6650,7 +6658,7 @@
       <c r="C105" t="s">
         <v>21</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E105" t="s">
@@ -6699,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>32</v>
       </c>
@@ -6709,7 +6717,7 @@
       <c r="C106" t="s">
         <v>33</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E106" t="s">
@@ -6758,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>35</v>
       </c>
@@ -6768,7 +6776,7 @@
       <c r="C107" t="s">
         <v>29</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E107" t="s">
@@ -6817,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -6827,7 +6835,7 @@
       <c r="C108" t="s">
         <v>21</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E108" t="s">
@@ -6876,7 +6884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -6886,7 +6894,7 @@
       <c r="C109" t="s">
         <v>21</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E109" t="s">
@@ -6935,7 +6943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -6945,7 +6953,7 @@
       <c r="C110" t="s">
         <v>21</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E110" t="s">
@@ -6994,7 +7002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -7004,7 +7012,7 @@
       <c r="C111" t="s">
         <v>21</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E111" t="s">
@@ -7053,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -7063,7 +7071,7 @@
       <c r="C112" t="s">
         <v>21</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E112" t="s">
@@ -7112,7 +7120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -7122,7 +7130,7 @@
       <c r="C113" t="s">
         <v>33</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E113" t="s">
@@ -7171,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>32</v>
       </c>
@@ -7181,7 +7189,7 @@
       <c r="C114" t="s">
         <v>27</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E114" t="s">
@@ -7230,7 +7238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -7240,7 +7248,7 @@
       <c r="C115" t="s">
         <v>21</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E115" t="s">
@@ -7289,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>19</v>
       </c>
@@ -7299,7 +7307,7 @@
       <c r="C116" t="s">
         <v>21</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E116" t="s">
@@ -7348,7 +7356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -7358,7 +7366,7 @@
       <c r="C117" t="s">
         <v>27</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E117" t="s">
@@ -7407,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>19</v>
       </c>
@@ -7417,7 +7425,7 @@
       <c r="C118" t="s">
         <v>21</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E118" t="s">
@@ -7466,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>35</v>
       </c>
@@ -7476,7 +7484,7 @@
       <c r="C119" t="s">
         <v>21</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E119" t="s">
@@ -7525,7 +7533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -7535,7 +7543,7 @@
       <c r="C120" t="s">
         <v>33</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E120" t="s">
@@ -7584,7 +7592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>19</v>
       </c>
@@ -7594,7 +7602,7 @@
       <c r="C121" t="s">
         <v>21</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E121" t="s">
@@ -7643,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>35</v>
       </c>
@@ -7653,7 +7661,7 @@
       <c r="C122" t="s">
         <v>29</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E122" t="s">
@@ -7702,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -7712,7 +7720,7 @@
       <c r="C123" t="s">
         <v>21</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E123" t="s">
@@ -7761,7 +7769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -7771,7 +7779,7 @@
       <c r="C124" t="s">
         <v>21</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E124" t="s">
@@ -7820,7 +7828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>35</v>
       </c>
@@ -7830,7 +7838,7 @@
       <c r="C125" t="s">
         <v>21</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E125" t="s">
@@ -7879,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>19</v>
       </c>
@@ -7889,7 +7897,7 @@
       <c r="C126" t="s">
         <v>21</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D126" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E126" t="s">
@@ -7938,7 +7946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -7948,7 +7956,7 @@
       <c r="C127" t="s">
         <v>21</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D127" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E127" t="s">
@@ -7997,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>19</v>
       </c>
@@ -8007,7 +8015,7 @@
       <c r="C128" t="s">
         <v>21</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D128" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E128" t="s">
@@ -8056,7 +8064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>32</v>
       </c>
@@ -8066,7 +8074,7 @@
       <c r="C129" t="s">
         <v>21</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D129" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E129" t="s">
@@ -8115,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -8125,7 +8133,7 @@
       <c r="C130" t="s">
         <v>29</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D130" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E130" t="s">
@@ -8174,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -8184,7 +8192,7 @@
       <c r="C131" t="s">
         <v>21</v>
       </c>
-      <c r="D131" t="s">
+      <c r="D131" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E131" t="s">
@@ -8233,7 +8241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -8243,7 +8251,7 @@
       <c r="C132" t="s">
         <v>29</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E132" t="s">
@@ -8292,7 +8300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>35</v>
       </c>
@@ -8302,7 +8310,7 @@
       <c r="C133" t="s">
         <v>21</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E133" t="s">
@@ -8351,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>19</v>
       </c>
@@ -8361,7 +8369,7 @@
       <c r="C134" t="s">
         <v>27</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D134" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E134" t="s">
@@ -8410,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -8420,7 +8428,7 @@
       <c r="C135" t="s">
         <v>29</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D135" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E135" t="s">
@@ -8469,7 +8477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>35</v>
       </c>
@@ -8479,7 +8487,7 @@
       <c r="C136" t="s">
         <v>27</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D136" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E136" t="s">
@@ -8528,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -8538,7 +8546,7 @@
       <c r="C137" t="s">
         <v>27</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E137" t="s">
@@ -8587,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -8597,7 +8605,7 @@
       <c r="C138" t="s">
         <v>27</v>
       </c>
-      <c r="D138" t="s">
+      <c r="D138" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E138" t="s">
@@ -8646,7 +8654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>19</v>
       </c>
@@ -8656,7 +8664,7 @@
       <c r="C139" t="s">
         <v>27</v>
       </c>
-      <c r="D139" t="s">
+      <c r="D139" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E139" t="s">
@@ -8705,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -8715,7 +8723,7 @@
       <c r="C140" t="s">
         <v>27</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E140" t="s">
@@ -8764,7 +8772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>19</v>
       </c>
@@ -8774,7 +8782,7 @@
       <c r="C141" t="s">
         <v>21</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E141" t="s">
@@ -8823,7 +8831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>19</v>
       </c>
@@ -8833,7 +8841,7 @@
       <c r="C142" t="s">
         <v>29</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E142" t="s">
@@ -8882,7 +8890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>19</v>
       </c>
@@ -8892,7 +8900,7 @@
       <c r="C143" t="s">
         <v>21</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E143" t="s">
@@ -8941,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -8951,7 +8959,7 @@
       <c r="C144" t="s">
         <v>21</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D144" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E144" t="s">
@@ -9000,7 +9008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -9010,7 +9018,7 @@
       <c r="C145" t="s">
         <v>29</v>
       </c>
-      <c r="D145" t="s">
+      <c r="D145" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E145" t="s">
@@ -9059,7 +9067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>19</v>
       </c>
@@ -9069,7 +9077,7 @@
       <c r="C146" t="s">
         <v>21</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E146" t="s">
@@ -9118,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>19</v>
       </c>
@@ -9128,7 +9136,7 @@
       <c r="C147" t="s">
         <v>21</v>
       </c>
-      <c r="D147" t="s">
+      <c r="D147" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E147" t="s">
@@ -9177,7 +9185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>19</v>
       </c>
@@ -9187,7 +9195,7 @@
       <c r="C148" t="s">
         <v>21</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E148" t="s">
@@ -9236,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -9246,7 +9254,7 @@
       <c r="C149" t="s">
         <v>21</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E149" t="s">
@@ -9295,7 +9303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -9305,7 +9313,7 @@
       <c r="C150" t="s">
         <v>21</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E150" t="s">
@@ -9354,7 +9362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -9364,7 +9372,7 @@
       <c r="C151" t="s">
         <v>21</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E151" t="s">
@@ -9413,7 +9421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>19</v>
       </c>
@@ -9423,7 +9431,7 @@
       <c r="C152" t="s">
         <v>21</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D152" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E152" t="s">
@@ -9472,7 +9480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -9482,7 +9490,7 @@
       <c r="C153" t="s">
         <v>21</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E153" t="s">
@@ -9531,7 +9539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -9541,7 +9549,7 @@
       <c r="C154" t="s">
         <v>29</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E154" t="s">
@@ -9590,7 +9598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -9600,7 +9608,7 @@
       <c r="C155" t="s">
         <v>21</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E155" t="s">
@@ -9649,7 +9657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>19</v>
       </c>
@@ -9659,7 +9667,7 @@
       <c r="C156" t="s">
         <v>29</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E156" t="s">
@@ -9708,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>19</v>
       </c>
@@ -9718,7 +9726,7 @@
       <c r="C157" t="s">
         <v>33</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E157" t="s">
@@ -9767,7 +9775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>19</v>
       </c>
@@ -9777,7 +9785,7 @@
       <c r="C158" t="s">
         <v>29</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E158" t="s">
@@ -9826,7 +9834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -9836,7 +9844,7 @@
       <c r="C159" t="s">
         <v>21</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D159" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E159" t="s">
@@ -9885,7 +9893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -9895,7 +9903,7 @@
       <c r="C160" t="s">
         <v>21</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E160" t="s">
@@ -9944,7 +9952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -9954,7 +9962,7 @@
       <c r="C161" t="s">
         <v>21</v>
       </c>
-      <c r="D161" t="s">
+      <c r="D161" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E161" t="s">
@@ -10003,7 +10011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -10013,7 +10021,7 @@
       <c r="C162" t="s">
         <v>21</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D162" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E162" t="s">
@@ -10062,7 +10070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -10072,7 +10080,7 @@
       <c r="C163" t="s">
         <v>21</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D163" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E163" t="s">
@@ -10121,7 +10129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -10131,7 +10139,7 @@
       <c r="C164" t="s">
         <v>21</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D164" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E164" t="s">
@@ -10180,7 +10188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>35</v>
       </c>
@@ -10190,7 +10198,7 @@
       <c r="C165" t="s">
         <v>21</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D165" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E165" t="s">
@@ -10239,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -10249,7 +10257,7 @@
       <c r="C166" t="s">
         <v>21</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E166" t="s">
@@ -10298,7 +10306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -10308,7 +10316,7 @@
       <c r="C167" t="s">
         <v>29</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E167" t="s">
@@ -10357,7 +10365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -10367,7 +10375,7 @@
       <c r="C168" t="s">
         <v>33</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E168" t="s">
@@ -10416,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -10426,7 +10434,7 @@
       <c r="C169" t="s">
         <v>21</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E169" t="s">
@@ -10475,7 +10483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -10485,7 +10493,7 @@
       <c r="C170" t="s">
         <v>21</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E170" t="s">
@@ -10534,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -10544,7 +10552,7 @@
       <c r="C171" t="s">
         <v>21</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E171" t="s">
@@ -10593,7 +10601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>19</v>
       </c>
@@ -10603,7 +10611,7 @@
       <c r="C172" t="s">
         <v>21</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E172" t="s">
@@ -10652,7 +10660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>19</v>
       </c>
@@ -10662,7 +10670,7 @@
       <c r="C173" t="s">
         <v>21</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E173" t="s">
@@ -10711,7 +10719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -10721,7 +10729,7 @@
       <c r="C174" t="s">
         <v>21</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E174" t="s">
@@ -10770,7 +10778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -10780,7 +10788,7 @@
       <c r="C175" t="s">
         <v>21</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E175" t="s">
@@ -10829,7 +10837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -10839,7 +10847,7 @@
       <c r="C176" t="s">
         <v>21</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E176" t="s">
@@ -10888,7 +10896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -10898,7 +10906,7 @@
       <c r="C177" t="s">
         <v>29</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E177" t="s">
@@ -10947,7 +10955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>19</v>
       </c>
@@ -10957,7 +10965,7 @@
       <c r="C178" t="s">
         <v>21</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E178" t="s">
@@ -11006,7 +11014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>35</v>
       </c>
@@ -11016,7 +11024,7 @@
       <c r="C179" t="s">
         <v>21</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E179" t="s">
@@ -11065,7 +11073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>19</v>
       </c>
@@ -11075,7 +11083,7 @@
       <c r="C180" t="s">
         <v>27</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D180" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E180" t="s">
@@ -11124,7 +11132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>19</v>
       </c>
@@ -11134,7 +11142,7 @@
       <c r="C181" t="s">
         <v>21</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D181" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E181" t="s">
@@ -11183,7 +11191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>19</v>
       </c>
@@ -11193,7 +11201,7 @@
       <c r="C182" t="s">
         <v>27</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D182" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E182" t="s">
@@ -11242,7 +11250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>19</v>
       </c>
@@ -11252,7 +11260,7 @@
       <c r="C183" t="s">
         <v>21</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D183" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E183" t="s">
@@ -11301,7 +11309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>32</v>
       </c>
@@ -11311,7 +11319,7 @@
       <c r="C184" t="s">
         <v>27</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D184" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E184" t="s">
@@ -11360,7 +11368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>19</v>
       </c>
@@ -11370,7 +11378,7 @@
       <c r="C185" t="s">
         <v>33</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D185" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E185" t="s">
@@ -11419,7 +11427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>19</v>
       </c>
@@ -11429,7 +11437,7 @@
       <c r="C186" t="s">
         <v>27</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D186" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E186" t="s">
@@ -11478,7 +11486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>19</v>
       </c>
@@ -11488,7 +11496,7 @@
       <c r="C187" t="s">
         <v>21</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E187" t="s">
@@ -11537,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>19</v>
       </c>
@@ -11547,7 +11555,7 @@
       <c r="C188" t="s">
         <v>21</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D188" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E188" t="s">
@@ -11596,7 +11604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>19</v>
       </c>
@@ -11606,7 +11614,7 @@
       <c r="C189" t="s">
         <v>29</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D189" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E189" t="s">
@@ -11655,7 +11663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>19</v>
       </c>
@@ -11665,7 +11673,7 @@
       <c r="C190" t="s">
         <v>21</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D190" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E190" t="s">
@@ -11714,7 +11722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>19</v>
       </c>
@@ -11724,7 +11732,7 @@
       <c r="C191" t="s">
         <v>29</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E191" t="s">
@@ -11773,7 +11781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>19</v>
       </c>
@@ -11783,7 +11791,7 @@
       <c r="C192" t="s">
         <v>21</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D192" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E192" t="s">
@@ -11832,7 +11840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>19</v>
       </c>
@@ -11842,7 +11850,7 @@
       <c r="C193" t="s">
         <v>21</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D193" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E193" t="s">
@@ -11891,7 +11899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>19</v>
       </c>
@@ -11901,7 +11909,7 @@
       <c r="C194" t="s">
         <v>33</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D194" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E194" t="s">
@@ -11950,7 +11958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>19</v>
       </c>
@@ -11960,7 +11968,7 @@
       <c r="C195" t="s">
         <v>21</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E195" t="s">
@@ -12009,7 +12017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>19</v>
       </c>
@@ -12019,7 +12027,7 @@
       <c r="C196" t="s">
         <v>21</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D196" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E196" t="s">
@@ -12068,7 +12076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -12078,7 +12086,7 @@
       <c r="C197" t="s">
         <v>21</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D197" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E197" t="s">
@@ -12127,7 +12135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>19</v>
       </c>
@@ -12137,7 +12145,7 @@
       <c r="C198" t="s">
         <v>21</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D198" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E198" t="s">
@@ -12186,7 +12194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -12196,7 +12204,7 @@
       <c r="C199" t="s">
         <v>21</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D199" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E199" t="s">
@@ -12245,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>35</v>
       </c>
@@ -12255,7 +12263,7 @@
       <c r="C200" t="s">
         <v>27</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D200" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E200" t="s">
@@ -12304,7 +12312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>19</v>
       </c>
@@ -12314,7 +12322,7 @@
       <c r="C201" t="s">
         <v>27</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D201" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E201" t="s">
@@ -12363,7 +12371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>19</v>
       </c>
@@ -12373,7 +12381,7 @@
       <c r="C202" t="s">
         <v>27</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D202" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E202" t="s">
@@ -12422,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>19</v>
       </c>
@@ -12432,7 +12440,7 @@
       <c r="C203" t="s">
         <v>29</v>
       </c>
-      <c r="D203" t="s">
+      <c r="D203" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E203" t="s">
@@ -12481,7 +12489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>19</v>
       </c>
@@ -12491,7 +12499,7 @@
       <c r="C204" t="s">
         <v>21</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E204" t="s">
@@ -12540,7 +12548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>19</v>
       </c>
@@ -12550,7 +12558,7 @@
       <c r="C205" t="s">
         <v>29</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D205" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E205" t="s">
@@ -12599,7 +12607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>19</v>
       </c>
@@ -12609,7 +12617,7 @@
       <c r="C206" t="s">
         <v>21</v>
       </c>
-      <c r="D206" t="s">
+      <c r="D206" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E206" t="s">
@@ -12658,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>19</v>
       </c>
@@ -12668,7 +12676,7 @@
       <c r="C207" t="s">
         <v>27</v>
       </c>
-      <c r="D207" t="s">
+      <c r="D207" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E207" t="s">
@@ -12717,7 +12725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>19</v>
       </c>
@@ -12727,7 +12735,7 @@
       <c r="C208" t="s">
         <v>29</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E208" t="s">
@@ -12776,7 +12784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>19</v>
       </c>
@@ -12786,7 +12794,7 @@
       <c r="C209" t="s">
         <v>29</v>
       </c>
-      <c r="D209" t="s">
+      <c r="D209" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E209" t="s">
@@ -12835,7 +12843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>19</v>
       </c>
@@ -12845,7 +12853,7 @@
       <c r="C210" t="s">
         <v>21</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D210" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E210" t="s">
@@ -12894,7 +12902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>35</v>
       </c>
@@ -12904,7 +12912,7 @@
       <c r="C211" t="s">
         <v>21</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D211" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E211" t="s">
@@ -12953,7 +12961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -12963,7 +12971,7 @@
       <c r="C212" t="s">
         <v>33</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E212" t="s">
@@ -13012,7 +13020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -13022,7 +13030,7 @@
       <c r="C213" t="s">
         <v>21</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E213" t="s">
@@ -13071,7 +13079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -13081,7 +13089,7 @@
       <c r="C214" t="s">
         <v>27</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E214" t="s">
@@ -13130,7 +13138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>19</v>
       </c>
@@ -13140,7 +13148,7 @@
       <c r="C215" t="s">
         <v>21</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E215" t="s">
@@ -13189,7 +13197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>32</v>
       </c>
@@ -13199,7 +13207,7 @@
       <c r="C216" t="s">
         <v>21</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E216" t="s">
@@ -13248,7 +13256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>35</v>
       </c>
@@ -13258,7 +13266,7 @@
       <c r="C217" t="s">
         <v>21</v>
       </c>
-      <c r="D217" t="s">
+      <c r="D217" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E217" t="s">
@@ -13307,7 +13315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>19</v>
       </c>
@@ -13317,7 +13325,7 @@
       <c r="C218" t="s">
         <v>21</v>
       </c>
-      <c r="D218" t="s">
+      <c r="D218" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E218" t="s">
@@ -13366,7 +13374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>19</v>
       </c>
@@ -13376,7 +13384,7 @@
       <c r="C219" t="s">
         <v>21</v>
       </c>
-      <c r="D219" t="s">
+      <c r="D219" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E219" t="s">
@@ -13425,7 +13433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>19</v>
       </c>
@@ -13435,7 +13443,7 @@
       <c r="C220" t="s">
         <v>21</v>
       </c>
-      <c r="D220" t="s">
+      <c r="D220" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E220" t="s">
@@ -13484,7 +13492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>19</v>
       </c>
@@ -13494,7 +13502,7 @@
       <c r="C221" t="s">
         <v>21</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D221" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E221" t="s">
@@ -13543,7 +13551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>19</v>
       </c>
@@ -13553,7 +13561,7 @@
       <c r="C222" t="s">
         <v>21</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D222" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E222" t="s">
@@ -13602,7 +13610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>19</v>
       </c>
@@ -13612,7 +13620,7 @@
       <c r="C223" t="s">
         <v>21</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D223" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E223" t="s">
@@ -13661,7 +13669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>19</v>
       </c>
@@ -13671,7 +13679,7 @@
       <c r="C224" t="s">
         <v>21</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D224" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E224" t="s">
@@ -13720,7 +13728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>19</v>
       </c>
@@ -13730,7 +13738,7 @@
       <c r="C225" t="s">
         <v>29</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D225" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E225" t="s">
@@ -13779,7 +13787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>19</v>
       </c>
@@ -13789,7 +13797,7 @@
       <c r="C226" t="s">
         <v>21</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D226" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E226" t="s">
@@ -13838,7 +13846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>35</v>
       </c>
@@ -13848,7 +13856,7 @@
       <c r="C227" t="s">
         <v>21</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D227" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E227" t="s">
@@ -13897,7 +13905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>19</v>
       </c>
@@ -13907,7 +13915,7 @@
       <c r="C228" t="s">
         <v>21</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D228" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E228" t="s">
@@ -13956,7 +13964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>19</v>
       </c>
@@ -13966,7 +13974,7 @@
       <c r="C229" t="s">
         <v>29</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D229" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E229" t="s">
@@ -14015,7 +14023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>19</v>
       </c>
@@ -14025,7 +14033,7 @@
       <c r="C230" t="s">
         <v>29</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D230" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E230" t="s">
@@ -14074,7 +14082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>19</v>
       </c>
@@ -14084,7 +14092,7 @@
       <c r="C231" t="s">
         <v>21</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D231" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E231" t="s">
@@ -14133,7 +14141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -14143,7 +14151,7 @@
       <c r="C232" t="s">
         <v>21</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D232" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E232" t="s">
@@ -14192,7 +14200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>19</v>
       </c>
@@ -14202,7 +14210,7 @@
       <c r="C233" t="s">
         <v>21</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D233" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E233" t="s">
@@ -14251,7 +14259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>19</v>
       </c>
@@ -14261,7 +14269,7 @@
       <c r="C234" t="s">
         <v>21</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E234" t="s">
@@ -14310,7 +14318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>19</v>
       </c>
@@ -14320,7 +14328,7 @@
       <c r="C235" t="s">
         <v>33</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D235" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E235" t="s">
@@ -14369,7 +14377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>19</v>
       </c>
@@ -14379,7 +14387,7 @@
       <c r="C236" t="s">
         <v>21</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D236" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E236" t="s">
@@ -14428,7 +14436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>19</v>
       </c>
@@ -14438,7 +14446,7 @@
       <c r="C237" t="s">
         <v>21</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D237" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E237" t="s">
@@ -14487,7 +14495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>35</v>
       </c>
@@ -14497,7 +14505,7 @@
       <c r="C238" t="s">
         <v>27</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D238" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E238" t="s">
@@ -14546,7 +14554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>19</v>
       </c>
@@ -14556,7 +14564,7 @@
       <c r="C239" t="s">
         <v>21</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D239" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E239" t="s">
@@ -14605,7 +14613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>19</v>
       </c>
@@ -14615,7 +14623,7 @@
       <c r="C240" t="s">
         <v>21</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D240" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E240" t="s">
@@ -14664,7 +14672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>19</v>
       </c>
@@ -14674,7 +14682,7 @@
       <c r="C241" t="s">
         <v>33</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D241" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E241" t="s">
@@ -14723,7 +14731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>19</v>
       </c>
@@ -14733,7 +14741,7 @@
       <c r="C242" t="s">
         <v>21</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D242" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E242" t="s">
@@ -14782,7 +14790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>19</v>
       </c>
@@ -14792,7 +14800,7 @@
       <c r="C243" t="s">
         <v>21</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D243" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E243" t="s">
@@ -14841,7 +14849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>19</v>
       </c>
@@ -14851,7 +14859,7 @@
       <c r="C244" t="s">
         <v>27</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D244" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E244" t="s">
@@ -14900,7 +14908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>19</v>
       </c>
@@ -14910,7 +14918,7 @@
       <c r="C245" t="s">
         <v>27</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D245" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E245" t="s">
@@ -14959,7 +14967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>19</v>
       </c>
@@ -14969,7 +14977,7 @@
       <c r="C246" t="s">
         <v>21</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D246" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E246" t="s">
@@ -15018,7 +15026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>19</v>
       </c>
@@ -15028,7 +15036,7 @@
       <c r="C247" t="s">
         <v>21</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D247" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E247" t="s">
@@ -15077,7 +15085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>19</v>
       </c>
@@ -15087,7 +15095,7 @@
       <c r="C248" t="s">
         <v>21</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D248" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E248" t="s">
@@ -15136,7 +15144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>19</v>
       </c>
@@ -15146,7 +15154,7 @@
       <c r="C249" t="s">
         <v>29</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D249" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E249" t="s">
@@ -15195,7 +15203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>19</v>
       </c>
@@ -15205,7 +15213,7 @@
       <c r="C250" t="s">
         <v>21</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D250" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E250" t="s">
@@ -15254,7 +15262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>19</v>
       </c>
@@ -15264,7 +15272,7 @@
       <c r="C251" t="s">
         <v>21</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D251" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E251" t="s">
@@ -15313,7 +15321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>19</v>
       </c>
@@ -15323,7 +15331,7 @@
       <c r="C252" t="s">
         <v>33</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D252" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E252" t="s">
@@ -15372,7 +15380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>19</v>
       </c>
@@ -15382,7 +15390,7 @@
       <c r="C253" t="s">
         <v>21</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D253" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E253" t="s">
@@ -15431,7 +15439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>19</v>
       </c>
@@ -15441,7 +15449,7 @@
       <c r="C254" t="s">
         <v>21</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D254" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E254" t="s">
@@ -15490,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>19</v>
       </c>
@@ -15500,7 +15508,7 @@
       <c r="C255" t="s">
         <v>21</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D255" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E255" t="s">
@@ -15549,7 +15557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>19</v>
       </c>
@@ -15559,7 +15567,7 @@
       <c r="C256" t="s">
         <v>29</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D256" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E256" t="s">
@@ -15608,7 +15616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>19</v>
       </c>
@@ -15618,7 +15626,7 @@
       <c r="C257" t="s">
         <v>21</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D257" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E257" t="s">
@@ -15667,7 +15675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>35</v>
       </c>
@@ -15677,7 +15685,7 @@
       <c r="C258" t="s">
         <v>21</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D258" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E258" t="s">
@@ -15726,7 +15734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>19</v>
       </c>
@@ -15736,7 +15744,7 @@
       <c r="C259" t="s">
         <v>21</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D259" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E259" t="s">
@@ -15785,7 +15793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>32</v>
       </c>
@@ -15795,7 +15803,7 @@
       <c r="C260" t="s">
         <v>29</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D260" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E260" t="s">
@@ -15844,7 +15852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>19</v>
       </c>
@@ -15854,7 +15862,7 @@
       <c r="C261" t="s">
         <v>33</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D261" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E261" t="s">
@@ -15903,7 +15911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>19</v>
       </c>
@@ -15913,7 +15921,7 @@
       <c r="C262" t="s">
         <v>29</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D262" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E262" t="s">
@@ -15962,7 +15970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>19</v>
       </c>
@@ -15972,7 +15980,7 @@
       <c r="C263" t="s">
         <v>21</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D263" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E263" t="s">
@@ -16021,7 +16029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>19</v>
       </c>
@@ -16031,7 +16039,7 @@
       <c r="C264" t="s">
         <v>21</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D264" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E264" t="s">
@@ -16080,7 +16088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>19</v>
       </c>
@@ -16090,7 +16098,7 @@
       <c r="C265" t="s">
         <v>21</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D265" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E265" t="s">
@@ -16139,7 +16147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>32</v>
       </c>
@@ -16149,7 +16157,7 @@
       <c r="C266" t="s">
         <v>21</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D266" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E266" t="s">
@@ -16198,7 +16206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>19</v>
       </c>
@@ -16208,7 +16216,7 @@
       <c r="C267" t="s">
         <v>21</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D267" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E267" t="s">
@@ -16257,7 +16265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>35</v>
       </c>
@@ -16267,7 +16275,7 @@
       <c r="C268" t="s">
         <v>21</v>
       </c>
-      <c r="D268" t="s">
+      <c r="D268" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E268" t="s">
@@ -16316,7 +16324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>19</v>
       </c>
@@ -16326,7 +16334,7 @@
       <c r="C269" t="s">
         <v>29</v>
       </c>
-      <c r="D269" t="s">
+      <c r="D269" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E269" t="s">
@@ -16375,7 +16383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>19</v>
       </c>
@@ -16385,7 +16393,7 @@
       <c r="C270" t="s">
         <v>21</v>
       </c>
-      <c r="D270" t="s">
+      <c r="D270" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E270" t="s">
@@ -16434,7 +16442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>19</v>
       </c>
@@ -16444,7 +16452,7 @@
       <c r="C271" t="s">
         <v>21</v>
       </c>
-      <c r="D271" t="s">
+      <c r="D271" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E271" t="s">
@@ -16493,7 +16501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -16503,7 +16511,7 @@
       <c r="C272" t="s">
         <v>21</v>
       </c>
-      <c r="D272" t="s">
+      <c r="D272" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E272" t="s">
@@ -16552,7 +16560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -16562,7 +16570,7 @@
       <c r="C273" t="s">
         <v>21</v>
       </c>
-      <c r="D273" t="s">
+      <c r="D273" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E273" t="s">
@@ -16611,7 +16619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>35</v>
       </c>
@@ -16621,7 +16629,7 @@
       <c r="C274" t="s">
         <v>21</v>
       </c>
-      <c r="D274" t="s">
+      <c r="D274" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E274" t="s">
@@ -16670,7 +16678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>19</v>
       </c>
@@ -16680,7 +16688,7 @@
       <c r="C275" t="s">
         <v>21</v>
       </c>
-      <c r="D275" t="s">
+      <c r="D275" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E275" t="s">
@@ -16729,7 +16737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>35</v>
       </c>
@@ -16739,7 +16747,7 @@
       <c r="C276" t="s">
         <v>21</v>
       </c>
-      <c r="D276" t="s">
+      <c r="D276" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E276" t="s">
@@ -16788,7 +16796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>19</v>
       </c>
@@ -16798,7 +16806,7 @@
       <c r="C277" t="s">
         <v>21</v>
       </c>
-      <c r="D277" t="s">
+      <c r="D277" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E277" t="s">
@@ -16847,7 +16855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>19</v>
       </c>
@@ -16857,7 +16865,7 @@
       <c r="C278" t="s">
         <v>29</v>
       </c>
-      <c r="D278" t="s">
+      <c r="D278" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E278" t="s">
@@ -16906,7 +16914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>19</v>
       </c>
@@ -16916,7 +16924,7 @@
       <c r="C279" t="s">
         <v>21</v>
       </c>
-      <c r="D279" t="s">
+      <c r="D279" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E279" t="s">
@@ -16965,7 +16973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>19</v>
       </c>
@@ -16975,7 +16983,7 @@
       <c r="C280" t="s">
         <v>21</v>
       </c>
-      <c r="D280" t="s">
+      <c r="D280" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E280" t="s">
@@ -17024,7 +17032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>19</v>
       </c>
@@ -17034,7 +17042,7 @@
       <c r="C281" t="s">
         <v>33</v>
       </c>
-      <c r="D281" t="s">
+      <c r="D281" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E281" t="s">
@@ -17083,7 +17091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>19</v>
       </c>
@@ -17093,7 +17101,7 @@
       <c r="C282" t="s">
         <v>21</v>
       </c>
-      <c r="D282" t="s">
+      <c r="D282" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E282" t="s">
@@ -17142,7 +17150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>19</v>
       </c>
@@ -17152,7 +17160,7 @@
       <c r="C283" t="s">
         <v>27</v>
       </c>
-      <c r="D283" t="s">
+      <c r="D283" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E283" t="s">
@@ -17201,7 +17209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>19</v>
       </c>
@@ -17211,7 +17219,7 @@
       <c r="C284" t="s">
         <v>21</v>
       </c>
-      <c r="D284" t="s">
+      <c r="D284" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E284" t="s">
@@ -17260,7 +17268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>19</v>
       </c>
@@ -17270,7 +17278,7 @@
       <c r="C285" t="s">
         <v>21</v>
       </c>
-      <c r="D285" t="s">
+      <c r="D285" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E285" t="s">
@@ -17319,7 +17327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>19</v>
       </c>
@@ -17329,7 +17337,7 @@
       <c r="C286" t="s">
         <v>29</v>
       </c>
-      <c r="D286" t="s">
+      <c r="D286" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E286" t="s">
@@ -17378,7 +17386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>35</v>
       </c>
@@ -17388,7 +17396,7 @@
       <c r="C287" t="s">
         <v>21</v>
       </c>
-      <c r="D287" t="s">
+      <c r="D287" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E287" t="s">
@@ -17437,7 +17445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>19</v>
       </c>
@@ -17447,7 +17455,7 @@
       <c r="C288" t="s">
         <v>21</v>
       </c>
-      <c r="D288" t="s">
+      <c r="D288" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E288" t="s">
@@ -17496,7 +17504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>19</v>
       </c>
@@ -17506,7 +17514,7 @@
       <c r="C289" t="s">
         <v>29</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D289" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E289" t="s">
@@ -17555,7 +17563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>19</v>
       </c>
@@ -17565,7 +17573,7 @@
       <c r="C290" t="s">
         <v>21</v>
       </c>
-      <c r="D290" t="s">
+      <c r="D290" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E290" t="s">
@@ -17614,7 +17622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>19</v>
       </c>
@@ -17624,7 +17632,7 @@
       <c r="C291" t="s">
         <v>21</v>
       </c>
-      <c r="D291" t="s">
+      <c r="D291" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E291" t="s">
@@ -17673,7 +17681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>19</v>
       </c>
@@ -17683,7 +17691,7 @@
       <c r="C292" t="s">
         <v>21</v>
       </c>
-      <c r="D292" t="s">
+      <c r="D292" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E292" t="s">
@@ -17732,7 +17740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>19</v>
       </c>
@@ -17742,7 +17750,7 @@
       <c r="C293" t="s">
         <v>21</v>
       </c>
-      <c r="D293" t="s">
+      <c r="D293" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E293" t="s">
@@ -17791,7 +17799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>19</v>
       </c>
@@ -17801,7 +17809,7 @@
       <c r="C294" t="s">
         <v>29</v>
       </c>
-      <c r="D294" t="s">
+      <c r="D294" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E294" t="s">
@@ -17850,7 +17858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>19</v>
       </c>
@@ -17860,7 +17868,7 @@
       <c r="C295" t="s">
         <v>21</v>
       </c>
-      <c r="D295" t="s">
+      <c r="D295" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E295" t="s">
@@ -17909,7 +17917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>19</v>
       </c>
@@ -17919,7 +17927,7 @@
       <c r="C296" t="s">
         <v>21</v>
       </c>
-      <c r="D296" t="s">
+      <c r="D296" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E296" t="s">
@@ -17968,7 +17976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>19</v>
       </c>
@@ -17978,7 +17986,7 @@
       <c r="C297" t="s">
         <v>21</v>
       </c>
-      <c r="D297" t="s">
+      <c r="D297" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E297" t="s">
@@ -18027,7 +18035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>19</v>
       </c>
@@ -18037,7 +18045,7 @@
       <c r="C298" t="s">
         <v>21</v>
       </c>
-      <c r="D298" t="s">
+      <c r="D298" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E298" t="s">
@@ -18086,7 +18094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>19</v>
       </c>
@@ -18096,7 +18104,7 @@
       <c r="C299" t="s">
         <v>21</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D299" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E299" t="s">
@@ -18145,7 +18153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>19</v>
       </c>
@@ -18155,7 +18163,7 @@
       <c r="C300" t="s">
         <v>27</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E300" t="s">
@@ -18204,7 +18212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>19</v>
       </c>
@@ -18214,7 +18222,7 @@
       <c r="C301" t="s">
         <v>21</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E301" t="s">
@@ -18263,7 +18271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>32</v>
       </c>
@@ -18273,7 +18281,7 @@
       <c r="C302" t="s">
         <v>21</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E302" t="s">
@@ -18322,7 +18330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>19</v>
       </c>
@@ -18332,7 +18340,7 @@
       <c r="C303" t="s">
         <v>21</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E303" t="s">
@@ -18381,7 +18389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>19</v>
       </c>
@@ -18391,7 +18399,7 @@
       <c r="C304" t="s">
         <v>21</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E304" t="s">
@@ -18440,7 +18448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>19</v>
       </c>
@@ -18450,7 +18458,7 @@
       <c r="C305" t="s">
         <v>21</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E305" t="s">
@@ -18499,7 +18507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>19</v>
       </c>
@@ -18509,7 +18517,7 @@
       <c r="C306" t="s">
         <v>21</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E306" t="s">
@@ -18558,7 +18566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>19</v>
       </c>
@@ -18568,7 +18576,7 @@
       <c r="C307" t="s">
         <v>21</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E307" t="s">
@@ -18617,7 +18625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>19</v>
       </c>
@@ -18627,7 +18635,7 @@
       <c r="C308" t="s">
         <v>21</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E308" t="s">
@@ -18676,7 +18684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>19</v>
       </c>
@@ -18686,7 +18694,7 @@
       <c r="C309" t="s">
         <v>21</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E309" t="s">
@@ -18735,7 +18743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>19</v>
       </c>
@@ -18745,7 +18753,7 @@
       <c r="C310" t="s">
         <v>21</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E310" t="s">
@@ -18794,7 +18802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>19</v>
       </c>
@@ -18804,7 +18812,7 @@
       <c r="C311" t="s">
         <v>21</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E311" t="s">
@@ -18853,7 +18861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>19</v>
       </c>
@@ -18863,7 +18871,7 @@
       <c r="C312" t="s">
         <v>27</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E312" t="s">
@@ -18912,7 +18920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>19</v>
       </c>
@@ -18922,7 +18930,7 @@
       <c r="C313" t="s">
         <v>21</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E313" t="s">
@@ -18971,7 +18979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>19</v>
       </c>
@@ -18981,7 +18989,7 @@
       <c r="C314" t="s">
         <v>21</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E314" t="s">
@@ -19030,7 +19038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>19</v>
       </c>
@@ -19040,7 +19048,7 @@
       <c r="C315" t="s">
         <v>21</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E315" t="s">
@@ -19089,7 +19097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>19</v>
       </c>
@@ -19099,7 +19107,7 @@
       <c r="C316" t="s">
         <v>21</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E316" t="s">
@@ -19148,7 +19156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>19</v>
       </c>
@@ -19158,7 +19166,7 @@
       <c r="C317" t="s">
         <v>21</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E317" t="s">
@@ -19207,7 +19215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>19</v>
       </c>
@@ -19217,7 +19225,7 @@
       <c r="C318" t="s">
         <v>21</v>
       </c>
-      <c r="D318" t="s">
+      <c r="D318" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E318" t="s">
@@ -19266,7 +19274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>19</v>
       </c>
@@ -19276,7 +19284,7 @@
       <c r="C319" t="s">
         <v>21</v>
       </c>
-      <c r="D319" t="s">
+      <c r="D319" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E319" t="s">
@@ -19325,7 +19333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>19</v>
       </c>
@@ -19335,7 +19343,7 @@
       <c r="C320" t="s">
         <v>21</v>
       </c>
-      <c r="D320" t="s">
+      <c r="D320" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E320" t="s">
@@ -19384,7 +19392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>35</v>
       </c>
@@ -19394,7 +19402,7 @@
       <c r="C321" t="s">
         <v>21</v>
       </c>
-      <c r="D321" t="s">
+      <c r="D321" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E321" t="s">
@@ -19443,7 +19451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>19</v>
       </c>
@@ -19453,7 +19461,7 @@
       <c r="C322" t="s">
         <v>21</v>
       </c>
-      <c r="D322" t="s">
+      <c r="D322" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E322" t="s">
@@ -19502,7 +19510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>19</v>
       </c>
@@ -19512,7 +19520,7 @@
       <c r="C323" t="s">
         <v>21</v>
       </c>
-      <c r="D323" t="s">
+      <c r="D323" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E323" t="s">
@@ -19561,7 +19569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>19</v>
       </c>
@@ -19571,7 +19579,7 @@
       <c r="C324" t="s">
         <v>21</v>
       </c>
-      <c r="D324" t="s">
+      <c r="D324" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E324" t="s">
@@ -19620,7 +19628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>19</v>
       </c>
@@ -19630,7 +19638,7 @@
       <c r="C325" t="s">
         <v>21</v>
       </c>
-      <c r="D325" t="s">
+      <c r="D325" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E325" t="s">
@@ -19679,7 +19687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>19</v>
       </c>
@@ -19689,7 +19697,7 @@
       <c r="C326" t="s">
         <v>21</v>
       </c>
-      <c r="D326" t="s">
+      <c r="D326" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E326" t="s">
@@ -19738,7 +19746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>19</v>
       </c>
@@ -19748,7 +19756,7 @@
       <c r="C327" t="s">
         <v>21</v>
       </c>
-      <c r="D327" t="s">
+      <c r="D327" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E327" t="s">
@@ -19797,7 +19805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>19</v>
       </c>
@@ -19807,7 +19815,7 @@
       <c r="C328" t="s">
         <v>21</v>
       </c>
-      <c r="D328" t="s">
+      <c r="D328" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E328" t="s">
@@ -19856,7 +19864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>19</v>
       </c>
@@ -19866,7 +19874,7 @@
       <c r="C329" t="s">
         <v>21</v>
       </c>
-      <c r="D329" t="s">
+      <c r="D329" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E329" t="s">
@@ -19915,7 +19923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>35</v>
       </c>
@@ -19925,7 +19933,7 @@
       <c r="C330" t="s">
         <v>21</v>
       </c>
-      <c r="D330" t="s">
+      <c r="D330" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E330" t="s">
@@ -19974,7 +19982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>19</v>
       </c>
@@ -19984,7 +19992,7 @@
       <c r="C331" t="s">
         <v>21</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D331" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E331" t="s">
@@ -20033,7 +20041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>19</v>
       </c>
@@ -20043,7 +20051,7 @@
       <c r="C332" t="s">
         <v>21</v>
       </c>
-      <c r="D332" t="s">
+      <c r="D332" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E332" t="s">
@@ -20092,7 +20100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>19</v>
       </c>
@@ -20102,7 +20110,7 @@
       <c r="C333" t="s">
         <v>21</v>
       </c>
-      <c r="D333" t="s">
+      <c r="D333" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E333" t="s">
@@ -20151,7 +20159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>35</v>
       </c>
@@ -20161,7 +20169,7 @@
       <c r="C334" t="s">
         <v>21</v>
       </c>
-      <c r="D334" t="s">
+      <c r="D334" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E334" t="s">
@@ -20210,7 +20218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>19</v>
       </c>
@@ -20220,7 +20228,7 @@
       <c r="C335" t="s">
         <v>21</v>
       </c>
-      <c r="D335" t="s">
+      <c r="D335" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E335" t="s">
@@ -20269,7 +20277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>19</v>
       </c>
@@ -20279,7 +20287,7 @@
       <c r="C336" t="s">
         <v>21</v>
       </c>
-      <c r="D336" t="s">
+      <c r="D336" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E336" t="s">
@@ -20328,7 +20336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>19</v>
       </c>
@@ -20338,7 +20346,7 @@
       <c r="C337" t="s">
         <v>21</v>
       </c>
-      <c r="D337" t="s">
+      <c r="D337" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E337" t="s">
@@ -20387,7 +20395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>19</v>
       </c>
@@ -20397,7 +20405,7 @@
       <c r="C338" t="s">
         <v>21</v>
       </c>
-      <c r="D338" t="s">
+      <c r="D338" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E338" t="s">
@@ -20446,7 +20454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>19</v>
       </c>
@@ -20456,7 +20464,7 @@
       <c r="C339" t="s">
         <v>21</v>
       </c>
-      <c r="D339" t="s">
+      <c r="D339" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E339" t="s">
@@ -20505,7 +20513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>19</v>
       </c>
@@ -20515,7 +20523,7 @@
       <c r="C340" t="s">
         <v>21</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D340" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E340" t="s">
@@ -20564,7 +20572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>35</v>
       </c>
@@ -20574,7 +20582,7 @@
       <c r="C341" t="s">
         <v>21</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D341" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E341" t="s">
@@ -20623,7 +20631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>19</v>
       </c>
@@ -20633,7 +20641,7 @@
       <c r="C342" t="s">
         <v>21</v>
       </c>
-      <c r="D342" t="s">
+      <c r="D342" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E342" t="s">
@@ -20682,7 +20690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>35</v>
       </c>
@@ -20692,7 +20700,7 @@
       <c r="C343" t="s">
         <v>21</v>
       </c>
-      <c r="D343" t="s">
+      <c r="D343" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E343" t="s">
@@ -20741,7 +20749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>19</v>
       </c>
@@ -20751,7 +20759,7 @@
       <c r="C344" t="s">
         <v>21</v>
       </c>
-      <c r="D344" t="s">
+      <c r="D344" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E344" t="s">
@@ -20800,7 +20808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>32</v>
       </c>
@@ -20810,7 +20818,7 @@
       <c r="C345" t="s">
         <v>21</v>
       </c>
-      <c r="D345" t="s">
+      <c r="D345" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E345" t="s">
@@ -20859,7 +20867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>19</v>
       </c>
@@ -20869,7 +20877,7 @@
       <c r="C346" t="s">
         <v>21</v>
       </c>
-      <c r="D346" t="s">
+      <c r="D346" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E346" t="s">
@@ -20918,7 +20926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>19</v>
       </c>
@@ -20928,7 +20936,7 @@
       <c r="C347" t="s">
         <v>21</v>
       </c>
-      <c r="D347" t="s">
+      <c r="D347" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E347" t="s">
@@ -20977,7 +20985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>19</v>
       </c>
@@ -20987,7 +20995,7 @@
       <c r="C348" t="s">
         <v>21</v>
       </c>
-      <c r="D348" t="s">
+      <c r="D348" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E348" t="s">
@@ -21036,7 +21044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>19</v>
       </c>
@@ -21046,7 +21054,7 @@
       <c r="C349" t="s">
         <v>21</v>
       </c>
-      <c r="D349" t="s">
+      <c r="D349" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E349" t="s">
@@ -21095,7 +21103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>19</v>
       </c>
@@ -21105,7 +21113,7 @@
       <c r="C350" t="s">
         <v>21</v>
       </c>
-      <c r="D350" t="s">
+      <c r="D350" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E350" t="s">
@@ -21154,7 +21162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>19</v>
       </c>
@@ -21164,7 +21172,7 @@
       <c r="C351" t="s">
         <v>21</v>
       </c>
-      <c r="D351" t="s">
+      <c r="D351" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E351" t="s">
@@ -21213,7 +21221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>35</v>
       </c>
@@ -21223,7 +21231,7 @@
       <c r="C352" t="s">
         <v>21</v>
       </c>
-      <c r="D352" t="s">
+      <c r="D352" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E352" t="s">
@@ -21272,7 +21280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>19</v>
       </c>
@@ -21282,7 +21290,7 @@
       <c r="C353" t="s">
         <v>21</v>
       </c>
-      <c r="D353" t="s">
+      <c r="D353" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E353" t="s">
@@ -21331,7 +21339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>19</v>
       </c>
@@ -21341,7 +21349,7 @@
       <c r="C354" t="s">
         <v>21</v>
       </c>
-      <c r="D354" t="s">
+      <c r="D354" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E354" t="s">
@@ -21390,7 +21398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>19</v>
       </c>
@@ -21400,7 +21408,7 @@
       <c r="C355" t="s">
         <v>29</v>
       </c>
-      <c r="D355" t="s">
+      <c r="D355" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E355" t="s">
@@ -21449,7 +21457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>19</v>
       </c>
@@ -21459,7 +21467,7 @@
       <c r="C356" t="s">
         <v>21</v>
       </c>
-      <c r="D356" t="s">
+      <c r="D356" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E356" t="s">
@@ -21508,7 +21516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>35</v>
       </c>
@@ -21518,7 +21526,7 @@
       <c r="C357" t="s">
         <v>21</v>
       </c>
-      <c r="D357" t="s">
+      <c r="D357" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E357" t="s">
@@ -21567,7 +21575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>19</v>
       </c>
@@ -21577,7 +21585,7 @@
       <c r="C358" t="s">
         <v>21</v>
       </c>
-      <c r="D358" t="s">
+      <c r="D358" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E358" t="s">
@@ -21626,7 +21634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>19</v>
       </c>
@@ -21636,7 +21644,7 @@
       <c r="C359" t="s">
         <v>21</v>
       </c>
-      <c r="D359" t="s">
+      <c r="D359" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E359" t="s">
@@ -21685,7 +21693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>19</v>
       </c>
@@ -21695,7 +21703,7 @@
       <c r="C360" t="s">
         <v>21</v>
       </c>
-      <c r="D360" t="s">
+      <c r="D360" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E360" t="s">
@@ -21744,7 +21752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>19</v>
       </c>
@@ -21754,7 +21762,7 @@
       <c r="C361" t="s">
         <v>29</v>
       </c>
-      <c r="D361" t="s">
+      <c r="D361" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E361" t="s">
@@ -21803,7 +21811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>19</v>
       </c>
@@ -21813,7 +21821,7 @@
       <c r="C362" t="s">
         <v>21</v>
       </c>
-      <c r="D362" t="s">
+      <c r="D362" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E362" t="s">
@@ -21862,7 +21870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>19</v>
       </c>
@@ -21872,7 +21880,7 @@
       <c r="C363" t="s">
         <v>21</v>
       </c>
-      <c r="D363" t="s">
+      <c r="D363" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E363" t="s">
@@ -21921,7 +21929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>35</v>
       </c>
@@ -21931,7 +21939,7 @@
       <c r="C364" t="s">
         <v>21</v>
       </c>
-      <c r="D364" t="s">
+      <c r="D364" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E364" t="s">
@@ -21980,7 +21988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>19</v>
       </c>
@@ -21990,7 +21998,7 @@
       <c r="C365" t="s">
         <v>21</v>
       </c>
-      <c r="D365" t="s">
+      <c r="D365" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E365" t="s">
@@ -22039,7 +22047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>19</v>
       </c>
@@ -22049,7 +22057,7 @@
       <c r="C366" t="s">
         <v>21</v>
       </c>
-      <c r="D366" t="s">
+      <c r="D366" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E366" t="s">
@@ -22098,7 +22106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>35</v>
       </c>
@@ -22108,7 +22116,7 @@
       <c r="C367" t="s">
         <v>21</v>
       </c>
-      <c r="D367" t="s">
+      <c r="D367" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E367" t="s">
@@ -22157,7 +22165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>19</v>
       </c>
@@ -22167,7 +22175,7 @@
       <c r="C368" t="s">
         <v>21</v>
       </c>
-      <c r="D368" t="s">
+      <c r="D368" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E368" t="s">
@@ -22216,7 +22224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>19</v>
       </c>
@@ -22226,7 +22234,7 @@
       <c r="C369" t="s">
         <v>21</v>
       </c>
-      <c r="D369" t="s">
+      <c r="D369" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E369" t="s">
@@ -22275,7 +22283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>19</v>
       </c>
@@ -22285,7 +22293,7 @@
       <c r="C370" t="s">
         <v>21</v>
       </c>
-      <c r="D370" t="s">
+      <c r="D370" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E370" t="s">
@@ -22334,7 +22342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>19</v>
       </c>
@@ -22344,7 +22352,7 @@
       <c r="C371" t="s">
         <v>21</v>
       </c>
-      <c r="D371" t="s">
+      <c r="D371" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E371" t="s">
@@ -22393,7 +22401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>19</v>
       </c>
@@ -22403,7 +22411,7 @@
       <c r="C372" t="s">
         <v>21</v>
       </c>
-      <c r="D372" t="s">
+      <c r="D372" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E372" t="s">
@@ -22453,7 +22461,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:S1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/DATA_rest_dummy.xlsx
+++ b/DATA_rest_dummy.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="36">
   <si>
     <t>Predmety na rozvoj MV</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>morálna stránka žiakov sa má rozvíjať na niektorých vyučovacích predmetoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nie </t>
   </si>
 </sst>
 </file>
@@ -504,7 +501,7 @@
   <dimension ref="A1:S372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13503,7 +13500,7 @@
         <v>21</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E221" t="s">
         <v>23</v>
@@ -13562,7 +13559,7 @@
         <v>21</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E222" t="s">
         <v>23</v>
@@ -13621,7 +13618,7 @@
         <v>21</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E223" t="s">
         <v>24</v>
@@ -13798,7 +13795,7 @@
         <v>21</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E226" t="s">
         <v>24</v>
@@ -13857,7 +13854,7 @@
         <v>21</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E227" t="s">
         <v>24</v>
@@ -13916,7 +13913,7 @@
         <v>21</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E228" t="s">
         <v>23</v>
@@ -13975,7 +13972,7 @@
         <v>29</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E229" t="s">
         <v>24</v>
@@ -14034,7 +14031,7 @@
         <v>29</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E230" t="s">
         <v>28</v>
@@ -14093,7 +14090,7 @@
         <v>21</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E231" t="s">
         <v>23</v>
@@ -14152,7 +14149,7 @@
         <v>21</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E232" t="s">
         <v>24</v>
@@ -14211,7 +14208,7 @@
         <v>21</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E233" t="s">
         <v>23</v>
@@ -14270,7 +14267,7 @@
         <v>21</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E234" t="s">
         <v>26</v>
@@ -14388,7 +14385,7 @@
         <v>21</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E236" t="s">
         <v>28</v>
@@ -14447,7 +14444,7 @@
         <v>21</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E237" t="s">
         <v>23</v>
@@ -14506,7 +14503,7 @@
         <v>27</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E238" t="s">
         <v>24</v>
@@ -14565,7 +14562,7 @@
         <v>21</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E239" t="s">
         <v>24</v>
@@ -14624,7 +14621,7 @@
         <v>21</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E240" t="s">
         <v>23</v>
@@ -14683,7 +14680,7 @@
         <v>33</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E241" t="s">
         <v>24</v>
@@ -14742,7 +14739,7 @@
         <v>21</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E242" t="s">
         <v>26</v>
@@ -14801,7 +14798,7 @@
         <v>21</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E243" t="s">
         <v>24</v>
@@ -14919,7 +14916,7 @@
         <v>27</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E245" t="s">
         <v>24</v>
@@ -14978,7 +14975,7 @@
         <v>21</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E246" t="s">
         <v>28</v>
@@ -15037,7 +15034,7 @@
         <v>21</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E247" t="s">
         <v>23</v>
@@ -15096,7 +15093,7 @@
         <v>21</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E248" t="s">
         <v>26</v>
@@ -15155,7 +15152,7 @@
         <v>29</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E249" t="s">
         <v>23</v>
@@ -15214,7 +15211,7 @@
         <v>21</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E250" t="s">
         <v>23</v>
@@ -15273,7 +15270,7 @@
         <v>21</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E251" t="s">
         <v>24</v>
@@ -15332,7 +15329,7 @@
         <v>33</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E252" t="s">
         <v>24</v>
@@ -15391,7 +15388,7 @@
         <v>21</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E253" t="s">
         <v>23</v>
@@ -15509,7 +15506,7 @@
         <v>21</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E255" t="s">
         <v>26</v>
@@ -15568,7 +15565,7 @@
         <v>29</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E256" t="s">
         <v>26</v>
@@ -15627,7 +15624,7 @@
         <v>21</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E257" t="s">
         <v>23</v>
@@ -15686,7 +15683,7 @@
         <v>21</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E258" t="s">
         <v>23</v>
@@ -15745,7 +15742,7 @@
         <v>21</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E259" t="s">
         <v>23</v>
@@ -15804,7 +15801,7 @@
         <v>29</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E260" t="s">
         <v>24</v>
@@ -15922,7 +15919,7 @@
         <v>29</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E262" t="s">
         <v>23</v>
@@ -15981,7 +15978,7 @@
         <v>21</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E263" t="s">
         <v>24</v>
@@ -16040,7 +16037,7 @@
         <v>21</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E264" t="s">
         <v>23</v>
@@ -16099,7 +16096,7 @@
         <v>21</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E265" t="s">
         <v>23</v>
@@ -16158,7 +16155,7 @@
         <v>21</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E266" t="s">
         <v>26</v>
@@ -16276,7 +16273,7 @@
         <v>21</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E268" t="s">
         <v>24</v>
@@ -16335,7 +16332,7 @@
         <v>29</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E269" t="s">
         <v>23</v>
@@ -16394,7 +16391,7 @@
         <v>21</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E270" t="s">
         <v>23</v>
@@ -16453,7 +16450,7 @@
         <v>21</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E271" t="s">
         <v>28</v>
@@ -16512,7 +16509,7 @@
         <v>21</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E272" t="s">
         <v>23</v>
@@ -16571,7 +16568,7 @@
         <v>21</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E273" t="s">
         <v>26</v>
@@ -16630,7 +16627,7 @@
         <v>21</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E274" t="s">
         <v>23</v>
@@ -16689,7 +16686,7 @@
         <v>21</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E275" t="s">
         <v>24</v>
@@ -16748,7 +16745,7 @@
         <v>21</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E276" t="s">
         <v>24</v>
@@ -16807,7 +16804,7 @@
         <v>21</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E277" t="s">
         <v>23</v>
@@ -16925,7 +16922,7 @@
         <v>21</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E279" t="s">
         <v>23</v>
@@ -16984,7 +16981,7 @@
         <v>21</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E280" t="s">
         <v>23</v>
@@ -17043,7 +17040,7 @@
         <v>33</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E281" t="s">
         <v>26</v>
@@ -17102,7 +17099,7 @@
         <v>21</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E282" t="s">
         <v>24</v>
@@ -17161,7 +17158,7 @@
         <v>27</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E283" t="s">
         <v>26</v>
@@ -17220,7 +17217,7 @@
         <v>21</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E284" t="s">
         <v>23</v>
@@ -17279,7 +17276,7 @@
         <v>21</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E285" t="s">
         <v>23</v>
@@ -17338,7 +17335,7 @@
         <v>29</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E286" t="s">
         <v>23</v>
@@ -17397,7 +17394,7 @@
         <v>21</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E287" t="s">
         <v>23</v>
@@ -17456,7 +17453,7 @@
         <v>21</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E288" t="s">
         <v>23</v>
@@ -17574,7 +17571,7 @@
         <v>21</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E290" t="s">
         <v>24</v>
@@ -17633,7 +17630,7 @@
         <v>21</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E291" t="s">
         <v>24</v>
@@ -17692,7 +17689,7 @@
         <v>21</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E292" t="s">
         <v>26</v>
@@ -17810,7 +17807,7 @@
         <v>29</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E294" t="s">
         <v>26</v>
@@ -17869,7 +17866,7 @@
         <v>21</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E295" t="s">
         <v>26</v>
@@ -17928,7 +17925,7 @@
         <v>21</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E296" t="s">
         <v>24</v>
@@ -17987,7 +17984,7 @@
         <v>21</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E297" t="s">
         <v>26</v>
@@ -18046,7 +18043,7 @@
         <v>21</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E298" t="s">
         <v>26</v>
@@ -18105,7 +18102,7 @@
         <v>21</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E299" t="s">
         <v>24</v>
@@ -18164,7 +18161,7 @@
         <v>27</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E300" t="s">
         <v>23</v>
@@ -18223,7 +18220,7 @@
         <v>21</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E301" t="s">
         <v>23</v>
@@ -18282,7 +18279,7 @@
         <v>21</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E302" t="s">
         <v>26</v>
@@ -18341,7 +18338,7 @@
         <v>21</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E303" t="s">
         <v>24</v>
@@ -18400,7 +18397,7 @@
         <v>21</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E304" t="s">
         <v>24</v>
@@ -18459,7 +18456,7 @@
         <v>21</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E305" t="s">
         <v>24</v>
@@ -18518,7 +18515,7 @@
         <v>21</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E306" t="s">
         <v>23</v>
@@ -18577,7 +18574,7 @@
         <v>21</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E307" t="s">
         <v>23</v>
@@ -18636,7 +18633,7 @@
         <v>21</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E308" t="s">
         <v>23</v>
@@ -18695,7 +18692,7 @@
         <v>21</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E309" t="s">
         <v>24</v>
@@ -18754,7 +18751,7 @@
         <v>21</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E310" t="s">
         <v>23</v>
@@ -18813,7 +18810,7 @@
         <v>21</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E311" t="s">
         <v>26</v>
@@ -18872,7 +18869,7 @@
         <v>27</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E312" t="s">
         <v>24</v>
@@ -18931,7 +18928,7 @@
         <v>21</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E313" t="s">
         <v>23</v>
@@ -18990,7 +18987,7 @@
         <v>21</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E314" t="s">
         <v>23</v>
@@ -19049,7 +19046,7 @@
         <v>21</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E315" t="s">
         <v>24</v>
@@ -19108,7 +19105,7 @@
         <v>21</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E316" t="s">
         <v>24</v>
@@ -19167,7 +19164,7 @@
         <v>21</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E317" t="s">
         <v>23</v>
@@ -19226,7 +19223,7 @@
         <v>21</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E318" t="s">
         <v>26</v>
@@ -19285,7 +19282,7 @@
         <v>21</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E319" t="s">
         <v>23</v>
@@ -19344,7 +19341,7 @@
         <v>21</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E320" t="s">
         <v>24</v>
@@ -19403,7 +19400,7 @@
         <v>21</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E321" t="s">
         <v>24</v>
@@ -19462,7 +19459,7 @@
         <v>21</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E322" t="s">
         <v>24</v>
@@ -19521,7 +19518,7 @@
         <v>21</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E323" t="s">
         <v>24</v>
@@ -19580,7 +19577,7 @@
         <v>21</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E324" t="s">
         <v>23</v>
@@ -19698,7 +19695,7 @@
         <v>21</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E326" t="s">
         <v>23</v>
@@ -19757,7 +19754,7 @@
         <v>21</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E327" t="s">
         <v>28</v>
@@ -19816,7 +19813,7 @@
         <v>21</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E328" t="s">
         <v>24</v>
@@ -19875,7 +19872,7 @@
         <v>21</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E329" t="s">
         <v>28</v>
@@ -19934,7 +19931,7 @@
         <v>21</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E330" t="s">
         <v>24</v>
@@ -19993,7 +19990,7 @@
         <v>21</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E331" t="s">
         <v>23</v>
@@ -20052,7 +20049,7 @@
         <v>21</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E332" t="s">
         <v>23</v>
@@ -20111,7 +20108,7 @@
         <v>21</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E333" t="s">
         <v>23</v>
@@ -20170,7 +20167,7 @@
         <v>21</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E334" t="s">
         <v>24</v>
@@ -20229,7 +20226,7 @@
         <v>21</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E335" t="s">
         <v>23</v>
@@ -20288,7 +20285,7 @@
         <v>21</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E336" t="s">
         <v>28</v>
@@ -20347,7 +20344,7 @@
         <v>21</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E337" t="s">
         <v>23</v>
@@ -20465,7 +20462,7 @@
         <v>21</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E339" t="s">
         <v>28</v>
@@ -20524,7 +20521,7 @@
         <v>21</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E340" t="s">
         <v>23</v>
@@ -20583,7 +20580,7 @@
         <v>21</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E341" t="s">
         <v>24</v>
@@ -20642,7 +20639,7 @@
         <v>21</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E342" t="s">
         <v>23</v>
@@ -20701,7 +20698,7 @@
         <v>21</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E343" t="s">
         <v>26</v>
@@ -20760,7 +20757,7 @@
         <v>21</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E344" t="s">
         <v>28</v>
@@ -20819,7 +20816,7 @@
         <v>21</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E345" t="s">
         <v>23</v>
@@ -20878,7 +20875,7 @@
         <v>21</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E346" t="s">
         <v>28</v>
@@ -20996,7 +20993,7 @@
         <v>21</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E348" t="s">
         <v>26</v>
@@ -21055,7 +21052,7 @@
         <v>21</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E349" t="s">
         <v>24</v>
@@ -21114,7 +21111,7 @@
         <v>21</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E350" t="s">
         <v>23</v>
@@ -21232,7 +21229,7 @@
         <v>21</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E352" t="s">
         <v>23</v>
@@ -21291,7 +21288,7 @@
         <v>21</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E353" t="s">
         <v>26</v>
@@ -21350,7 +21347,7 @@
         <v>21</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E354" t="s">
         <v>23</v>
@@ -21409,7 +21406,7 @@
         <v>29</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E355" t="s">
         <v>23</v>
@@ -21468,7 +21465,7 @@
         <v>21</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E356" t="s">
         <v>24</v>
@@ -21527,7 +21524,7 @@
         <v>21</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E357" t="s">
         <v>23</v>
@@ -21586,7 +21583,7 @@
         <v>21</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E358" t="s">
         <v>28</v>
@@ -21645,7 +21642,7 @@
         <v>21</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E359" t="s">
         <v>28</v>
@@ -21704,7 +21701,7 @@
         <v>21</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E360" t="s">
         <v>26</v>
@@ -21763,7 +21760,7 @@
         <v>29</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E361" t="s">
         <v>26</v>
@@ -21822,7 +21819,7 @@
         <v>21</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E362" t="s">
         <v>24</v>
@@ -21881,7 +21878,7 @@
         <v>21</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E363" t="s">
         <v>23</v>
@@ -21940,7 +21937,7 @@
         <v>21</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E364" t="s">
         <v>23</v>
@@ -21999,7 +21996,7 @@
         <v>21</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E365" t="s">
         <v>23</v>
@@ -22058,7 +22055,7 @@
         <v>21</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E366" t="s">
         <v>24</v>
@@ -22117,7 +22114,7 @@
         <v>21</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E367" t="s">
         <v>23</v>
@@ -22176,7 +22173,7 @@
         <v>21</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E368" t="s">
         <v>24</v>
@@ -22235,7 +22232,7 @@
         <v>21</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E369" t="s">
         <v>23</v>
@@ -22294,7 +22291,7 @@
         <v>21</v>
       </c>
       <c r="D370" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E370" t="s">
         <v>24</v>
@@ -22353,7 +22350,7 @@
         <v>21</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E371" t="s">
         <v>24</v>
@@ -22412,7 +22409,7 @@
         <v>21</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E372" t="s">
         <v>23</v>
@@ -22461,7 +22458,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>